--- a/results_of_test/test_3/Fidelity_result_intra_states_q_4_engl_False.xlsx
+++ b/results_of_test/test_3/Fidelity_result_intra_states_q_4_engl_False.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>States</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>ket_4_qubits_2</t>
+  </si>
+  <si>
+    <t>ket_4_qubits_3</t>
+  </si>
+  <si>
+    <t>ket_4_qubits_4</t>
   </si>
 </sst>
 </file>
@@ -395,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,16 +429,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1.000000014907019</v>
+        <v>0.9999999234501524</v>
       </c>
       <c r="C2">
-        <v>1.000000024655141</v>
+        <v>0.9999998545156766</v>
       </c>
       <c r="D2">
-        <v>5.355728388593996E-08</v>
+        <v>2.116457726763189E-07</v>
       </c>
       <c r="E2">
-        <v>2.228910759259246E-08</v>
+        <v>3.631762351693954E-07</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,16 +446,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>1.000000019744562</v>
+        <v>0.9999997373116207</v>
       </c>
       <c r="C3">
-        <v>1.000000025563053</v>
+        <v>0.9999997478584539</v>
       </c>
       <c r="D3">
-        <v>5.18296685164799E-08</v>
+        <v>4.241828506923817E-07</v>
       </c>
       <c r="E3">
-        <v>2.947099664805117E-08</v>
+        <v>4.000751522171E-07</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,16 +463,50 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1.00000000209327</v>
+        <v>0.999999599268507</v>
       </c>
       <c r="C4">
-        <v>1.000000006436942</v>
+        <v>0.9999996290691842</v>
       </c>
       <c r="D4">
-        <v>5.48425435568201E-08</v>
+        <v>5.033916302626358E-07</v>
       </c>
       <c r="E4">
-        <v>3.587381379984873E-08</v>
+        <v>5.072095652759889E-07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.9999995222361703</v>
+      </c>
+      <c r="C5">
+        <v>0.9999995544584267</v>
+      </c>
+      <c r="D5">
+        <v>5.4729795905594E-07</v>
+      </c>
+      <c r="E5">
+        <v>4.897506975153062E-07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.9999994859593524</v>
+      </c>
+      <c r="C6">
+        <v>0.9999995168744742</v>
+      </c>
+      <c r="D6">
+        <v>5.497066491689237E-07</v>
+      </c>
+      <c r="E6">
+        <v>5.080506088125379E-07</v>
       </c>
     </row>
   </sheetData>
